--- a/Data/P10Data.xlsx
+++ b/Data/P10Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\pythonProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F380628-F5FE-40C4-A8A0-5D844484D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BED5EC8-BAAB-4D90-81DE-540E5B8C62C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="2600" windowWidth="19200" windowHeight="10510" xr2:uid="{34001147-C1F1-4C04-AC0B-854E9D50939E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{34001147-C1F1-4C04-AC0B-854E9D50939E}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36142496-54D1-4EC6-B63B-AE1F98BA7119}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C25" sqref="C2:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>802</v>
+        <v>1202</v>
       </c>
       <c r="C2" s="2">
         <v>400</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1791</v>
+        <v>1491</v>
       </c>
       <c r="C3" s="2">
         <v>350</v>
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>977</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="2">
         <v>450</v>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>866</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="2">
         <v>400</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1751</v>
+        <v>1451</v>
       </c>
       <c r="C6" s="2">
         <v>375</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>761</v>
+        <v>1361</v>
       </c>
       <c r="C7" s="2">
         <v>543</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1797</v>
+        <v>1497</v>
       </c>
       <c r="C9" s="2">
         <v>800</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2409</v>
+        <v>2009</v>
       </c>
       <c r="C11" s="2">
         <v>200</v>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2429</v>
+        <v>2229</v>
       </c>
       <c r="C12" s="2">
         <v>254</v>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1458</v>
+        <v>2058</v>
       </c>
       <c r="C19" s="2">
         <v>385</v>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2494</v>
+        <v>2294</v>
       </c>
       <c r="C20" s="2">
         <v>389</v>
@@ -821,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2469</v>
+        <v>2069</v>
       </c>
       <c r="C22" s="2">
         <v>286</v>
@@ -884,7 +884,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>560</v>
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>2030</v>
+        <v>1330</v>
       </c>
       <c r="K2" s="2">
         <v>960</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>560</v>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>2150</v>
+        <v>1250</v>
       </c>
       <c r="K3" s="2">
         <v>1420</v>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
         <v>550</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="K4" s="2">
         <v>1360</v>
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2">
         <v>530</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>1960</v>
+        <v>1360</v>
       </c>
       <c r="K5" s="2">
         <v>1250</v>
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>590</v>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>1820</v>
+        <v>1120</v>
       </c>
       <c r="K6" s="2">
         <v>1320</v>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>400</v>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>1530</v>
+        <v>1230</v>
       </c>
       <c r="K2" s="2">
         <v>610</v>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>490</v>
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>1450</v>
+        <v>1150</v>
       </c>
       <c r="K3" s="2">
         <v>610</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>460</v>
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>1320</v>
+        <v>1120</v>
       </c>
       <c r="K4" s="2">
         <v>560</v>
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>475</v>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>1420</v>
+        <v>1120</v>
       </c>
       <c r="K5" s="2">
         <v>530</v>
@@ -1498,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>470</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>1210</v>
+        <v>1110</v>
       </c>
       <c r="K6" s="2">
         <v>620</v>
